--- a/Datasets/Healthy/GSE65638.xlsx
+++ b/Datasets/Healthy/GSE65638.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadid\Documents\Extra\R_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadid\Documents\Extra\Code\Epigenetic-Clock\Datasets\Healthy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A07F17-6829-4B32-BA53-FFF09283289B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF1BFA-D09B-43BA-B4D7-A16AC9A40C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,10 @@
     <t>GSM1602331</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +471,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
